--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/2025/TIMES_TUe/Model_MSc_SELECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{13D91245-91CE-4E87-951E-9ABEA10B1F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD770827-29AB-40B2-BFE0-E7FECA6538BE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -5140,7 +5140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -5734,7 +5734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -6170,7 +6170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:J233"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -10357,6 +10357,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -10500,22 +10515,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EE394D-E8DA-413E-B5EF-6DF7212C84CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10531,28 +10555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>